--- a/fed-events/Fed_Events-03.07.23.xlsx
+++ b/fed-events/Fed_Events-03.07.23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorcas/Development/python_scraper_parser_projects/fed-events/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED98D69-8536-A049-9451-AF8EFBB2B28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED8A39-F0EB-974E-9B35-409BF675BB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="23620" windowHeight="12880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30260" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FedScoop" sheetId="1" r:id="rId1"/>
@@ -1211,9 +1211,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1375,9 +1381,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="62.6640625" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1974,9 +1984,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2361,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
